--- a/ExcelSheets/SmokeTestRunning.xlsx
+++ b/ExcelSheets/SmokeTestRunning.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="36">
   <si>
     <t>JobName</t>
   </si>
@@ -107,6 +107,24 @@
   </si>
   <si>
     <t>SmkVrs64UdpInPtsbasedPcr </t>
+  </si>
+  <si>
+    <t>SmokeXport13TestPattern_UDP</t>
+  </si>
+  <si>
+    <t>smokeXport14UDPmulticast_UDP</t>
+  </si>
+  <si>
+    <t>smokeXport15UDPmulticast_RTP</t>
+  </si>
+  <si>
+    <t>SmkXpt52UDP_SRTserver</t>
+  </si>
+  <si>
+    <t>SmkXpt53SRTclient_UDP</t>
+  </si>
+  <si>
+    <t>SmkXpt61QualityOptiUDP_UDP</t>
   </si>
 </sst>
 </file>
@@ -116,7 +134,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="GENERAL"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -154,14 +172,10 @@
     </font>
     <font>
       <sz val="10"/>
+      <color rgb="FF2A00FF"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF2A00FF"/>
-      <name val="Consolas"/>
-      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -206,7 +220,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -228,10 +242,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -312,16 +322,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B51"/>
+  <dimension ref="A1:B63"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A52" activeCellId="0" sqref="A52"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A43" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A69" activeCellId="0" sqref="A69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="37.9336734693878"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="37.1224489795918"/>
+    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -613,7 +623,7 @@
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="5" t="s">
+      <c r="A37" s="3" t="s">
         <v>20</v>
       </c>
       <c r="B37" s="0" t="s">
@@ -645,7 +655,7 @@
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="5" t="s">
+      <c r="A41" s="3" t="s">
         <v>24</v>
       </c>
       <c r="B41" s="0" t="s">
@@ -653,7 +663,7 @@
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="5" t="s">
+      <c r="A42" s="3" t="s">
         <v>23</v>
       </c>
       <c r="B42" s="0" t="s">
@@ -661,7 +671,7 @@
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="5" t="s">
+      <c r="A43" s="3" t="s">
         <v>22</v>
       </c>
       <c r="B43" s="0" t="s">
@@ -677,7 +687,7 @@
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="6" t="s">
+      <c r="A45" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B45" s="0" t="s">
@@ -685,7 +695,7 @@
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="6" t="s">
+      <c r="A46" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B46" s="0" t="s">
@@ -693,7 +703,7 @@
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="5" t="s">
+      <c r="A47" s="3" t="s">
         <v>25</v>
       </c>
       <c r="B47" s="0" t="s">
@@ -701,7 +711,7 @@
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="6" t="s">
+      <c r="A48" s="2" t="s">
         <v>27</v>
       </c>
       <c r="B48" s="0" t="s">
@@ -709,7 +719,7 @@
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="6" t="s">
+      <c r="A49" s="2" t="s">
         <v>27</v>
       </c>
       <c r="B49" s="0" t="s">
@@ -729,6 +739,102 @@
         <v>29</v>
       </c>
       <c r="B51" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B52" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B53" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B54" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B55" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B56" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B57" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B58" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B59" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B60" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B61" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B62" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B63" s="0" t="s">
         <v>7</v>
       </c>
     </row>
@@ -756,7 +862,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -784,7 +890,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/ExcelSheets/SmokeTestRunning.xlsx
+++ b/ExcelSheets/SmokeTestRunning.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="986" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="986" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="72">
   <si>
     <t>JobName</t>
   </si>
@@ -67,10 +67,10 @@
     <t>smokeVersa3dRtpunicastMp4out</t>
   </si>
   <si>
-    <t>smokeVersa6AMulticastUdpMp4out </t>
-  </si>
-  <si>
-    <t>smokeVersa6BMp4FileUdpUnicast</t>
+    <t>smokeVersa6AMulticastUdpMp4out</t>
+  </si>
+  <si>
+    <t>smokeVersa6BMp4FileUdpUnicast1</t>
   </si>
   <si>
     <t>smokeVersa6CUdpPassthroughUdpunicast</t>
@@ -106,7 +106,28 @@
     <t>SmkVrs64UdpInPtsbasedPcr</t>
   </si>
   <si>
-    <t>SmkVrs64UdpInPtsbasedPcr </t>
+    <t>SmkVrs26OutbandCueOutCueIn</t>
+  </si>
+  <si>
+    <t>smkVrs27scteOutbandCueoutDuration</t>
+  </si>
+  <si>
+    <t>SmkVrs28SctePerodic</t>
+  </si>
+  <si>
+    <t>smkVrs29InbandScte</t>
+  </si>
+  <si>
+    <t>SmkVrs30MltProScteOotbndCueOuIn</t>
+  </si>
+  <si>
+    <t>smkVrs31MltProScteOotbndCueOuDurat</t>
+  </si>
+  <si>
+    <t>SmkVrs32MltProSctePerodic</t>
+  </si>
+  <si>
+    <t>smkVrs33MltProScteInband</t>
   </si>
   <si>
     <t>SmokeXport13TestPattern_UDP</t>
@@ -125,6 +146,93 @@
   </si>
   <si>
     <t>SmkXpt61QualityOptiUDP_UDP</t>
+  </si>
+  <si>
+    <t>smkVrs4aBmdInMultiOut</t>
+  </si>
+  <si>
+    <t>smkVrs4bUnicastUdpMp4Out</t>
+  </si>
+  <si>
+    <t>smkVrs4cRtmpInMp4Out</t>
+  </si>
+  <si>
+    <t>smkVrs24SwtrRawImageInHlsOut</t>
+  </si>
+  <si>
+    <t>smkVrs25SwtrRawTestInHlsDashOut</t>
+  </si>
+  <si>
+    <t>SmkVrs34ScteCueOuInUdpInRawOut</t>
+  </si>
+  <si>
+    <t>SmkVrs35ScteCueOuDuraUdpInRawOut</t>
+  </si>
+  <si>
+    <t>SmkVrs36SctePerodicUdpInRawOut</t>
+  </si>
+  <si>
+    <t>SmkVrs37ScteInbandRawInHlsout</t>
+  </si>
+  <si>
+    <t>SmkVrs38ScteOubndCuOuInRawInHls</t>
+  </si>
+  <si>
+    <t>SmkVrs39ScteOubndCuOuDuraRawInHls</t>
+  </si>
+  <si>
+    <t>SmkVrs40SctePerodicRawInHls</t>
+  </si>
+  <si>
+    <t>SmkVrs41ScteCueOuInFileInRawOut</t>
+  </si>
+  <si>
+    <t>SmkVrs42ScteInbandRawOutHls</t>
+  </si>
+  <si>
+    <t>SmkVrs43ScteCueOuDurFileInRawOut</t>
+  </si>
+  <si>
+    <t>SmkVrs44ScteInbandRawOutHls</t>
+  </si>
+  <si>
+    <t>SmkVrs45MgwlInHls</t>
+  </si>
+  <si>
+    <t>SmkVrs46MgwlInDash</t>
+  </si>
+  <si>
+    <t>SmkVrs47MgwlInUDPOut</t>
+  </si>
+  <si>
+    <t>smkVrs48MgwlInHlsMp4UserDe</t>
+  </si>
+  <si>
+    <t>SmkVrs49MagewlInRtmpOut</t>
+  </si>
+  <si>
+    <t>SmkVrs50VportRawInUDpuni</t>
+  </si>
+  <si>
+    <t>SmkVrs51VportUDpuniRawOut</t>
+  </si>
+  <si>
+    <t>SmkVrs62MgwlInHlsndUdpOut</t>
+  </si>
+  <si>
+    <t>SmkVrs65aMgwlInUDPpTSbasPCR</t>
+  </si>
+  <si>
+    <t>Smkvrs66HttpInRawOut</t>
+  </si>
+  <si>
+    <t>SmkXport47Magewell_UDP</t>
+  </si>
+  <si>
+    <t>SmokeXport4aBMD_UDP</t>
+  </si>
+  <si>
+    <t>SmkXpt63QualityOptMagewellUDP</t>
   </si>
 </sst>
 </file>
@@ -134,7 +242,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="GENERAL"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="9">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -172,10 +280,21 @@
     </font>
     <font>
       <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color rgb="FF2A00FF"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF2A00FF"/>
+      <name val="Consolas"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -220,7 +339,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -242,6 +361,14 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -322,16 +449,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B63"/>
+  <dimension ref="A1:B67"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A43" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A69" activeCellId="0" sqref="A69"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B69" activeCellId="0" sqref="B69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="37.1224489795918"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="35.7704081632653"/>
+    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -583,7 +710,7 @@
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="3" t="s">
+      <c r="A32" s="5" t="s">
         <v>17</v>
       </c>
       <c r="B32" s="0" t="s">
@@ -591,7 +718,7 @@
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="3" t="s">
+      <c r="A33" s="5" t="s">
         <v>16</v>
       </c>
       <c r="B33" s="0" t="s">
@@ -736,7 +863,7 @@
     </row>
     <row r="51" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B51" s="0" t="s">
         <v>7</v>
@@ -744,15 +871,15 @@
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B52" s="0" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="5" t="s">
-        <v>30</v>
+      <c r="A53" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="B53" s="0" t="s">
         <v>7</v>
@@ -760,7 +887,7 @@
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B54" s="0" t="s">
         <v>3</v>
@@ -768,7 +895,7 @@
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B55" s="0" t="s">
         <v>7</v>
@@ -776,7 +903,7 @@
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B56" s="0" t="s">
         <v>3</v>
@@ -784,7 +911,7 @@
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B57" s="0" t="s">
         <v>7</v>
@@ -792,7 +919,7 @@
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B58" s="0" t="s">
         <v>3</v>
@@ -800,18 +927,18 @@
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B59" s="0" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B60" s="0" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -824,7 +951,7 @@
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B62" s="0" t="s">
         <v>3</v>
@@ -832,9 +959,41 @@
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B63" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B63" s="0" t="s">
+      <c r="B64" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B65" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B66" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B67" s="0" t="s">
         <v>7</v>
       </c>
     </row>
@@ -854,18 +1013,122 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="29.4744897959184"/>
+    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
@@ -882,18 +1145,490 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:B59"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B57" activeCellId="0" sqref="B57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="43.015306122449"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B21" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B22" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B23" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="B24" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="B25" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="B26" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="B27" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="B28" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="B29" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="B30" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="B31" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="B32" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="B33" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="B34" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="B35" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="B36" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="B37" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="B38" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="B39" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="B40" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="B41" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="B42" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="B43" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="B44" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="B45" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="B46" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="B47" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="B48" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="B49" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="B50" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="B51" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="B52" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="B53" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="B54" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="B55" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="B56" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="B57" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="B58" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="B59" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
